--- a/RBD - Dummy/MP_UnitOfMeasures.xlsx
+++ b/RBD - Dummy/MP_UnitOfMeasures.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>Factor</t>
   </si>
@@ -41,18 +41,21 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>100% BROKEN RICE_MAURITANIA_200251 [Non GMO]</t>
+  </si>
+  <si>
     <t>100% BROKEN RICE_SENEGAL_200249 [Non GMO]</t>
   </si>
   <si>
+    <t>100% BROKEN RICE_SENEGAL_200681 [Non GMO]</t>
+  </si>
+  <si>
     <t>20% BROKEN RICE_GAMBIA_200327 [Non GMO]</t>
   </si>
   <si>
     <t>20% BROKEN RICE_GUINEA_200326 [Non GMO]</t>
   </si>
   <si>
-    <t>20% BROKEN RICE_LIBERIA_200395 [Non GMO]</t>
-  </si>
-  <si>
     <t>20% BROKEN RICE_LIBERIA_200550 [Non GMO]</t>
   </si>
   <si>
@@ -83,7 +86,7 @@
     <t>25% BROKEN RICE_GUINEA-BISSAU_200846 [Non GMO]</t>
   </si>
   <si>
-    <t>25% BROKEN RICE_MAURITANIA_200251 [Non GMO]</t>
+    <t>25% BROKEN RICE_LIBERIA_200395 [Non GMO]</t>
   </si>
   <si>
     <t>25% BROKEN RICE_MAURITANIA_200640 [Non GMO]</t>
@@ -92,9 +95,6 @@
     <t>25% BROKEN RICE_NIGERIA_200777 [Non GMO]</t>
   </si>
   <si>
-    <t>25% BROKEN RICE_SENEGAL_200681 [Non GMO]</t>
-  </si>
-  <si>
     <t>25% BROKEN RICE_SIERRA LEONE_200938 [Non GMO]</t>
   </si>
   <si>
@@ -113,6 +113,9 @@
     <t>CANNED FISH_SENEGAL_200681 [Non GMO]</t>
   </si>
   <si>
+    <t>DRIED FRUITS_BURKINA FASO_200163 [Non GMO]</t>
+  </si>
+  <si>
     <t>HIGH ENERGY BISCUITS_CAMEROON_200777 [Non GMO]</t>
   </si>
   <si>
@@ -284,12 +287,6 @@
     <t>PALMOLIEN OIL_MALI_200719 [Non GMO]</t>
   </si>
   <si>
-    <t>PALMOLIEN OIL_MAURITANIA_200251 [Non GMO]</t>
-  </si>
-  <si>
-    <t>PALMOLIEN OIL_MAURITANIA_200640 [Non GMO]</t>
-  </si>
-  <si>
     <t>PALMOLIEN OIL_NIGERIA_200777 [Non GMO]</t>
   </si>
   <si>
@@ -348,6 +345,12 @@
   </si>
   <si>
     <t>SORGHUM/MILLET_NIGER_200961 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SOYA BEAN OIL_MAURITANIA_200251 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SOYA BEAN OIL_MAURITANIA_200640 [Non GMO]</t>
   </si>
   <si>
     <t>SOYA BEAN OIL_SENEGAL_200681 [Non GMO]</t>
@@ -948,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="n">
-        <v>21</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1465,7 +1468,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="n">
-        <v>22.13428571428571</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="n">
-        <v>20.28571428571428</v>
+        <v>22.13428571428571</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -2026,7 +2029,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="n">
-        <v>18.45066666666667</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="n">
-        <v>19.09366666666666</v>
+        <v>18.45066666666667</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="n">
-        <v>19.09366666666666</v>
+        <v>17.9225</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2553,7 +2556,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="n">
-        <v>17.9225</v>
+        <v>20.9</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -2723,7 +2726,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="n">
-        <v>20.9</v>
+        <v>19.55666666666666</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -2757,7 +2760,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="n">
-        <v>22.04347826086957</v>
+        <v>19.55666666666666</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -3029,7 +3032,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -3760,7 +3763,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
@@ -3930,7 +3933,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="n">
-        <v>20.28571428571428</v>
+        <v>17.9225</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -3947,7 +3950,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="n">
-        <v>21.11379310344827</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -3964,7 +3967,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="n">
-        <v>22.0848275862069</v>
+        <v>21.11379310344827</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4083,7 +4086,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="n">
-        <v>20.96153846153846</v>
+        <v>22.0848275862069</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -4134,7 +4137,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="n">
-        <v>22.11789473684211</v>
+        <v>20.96153846153846</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
@@ -4185,7 +4188,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="n">
-        <v>22.23809523809524</v>
+        <v>22.11789473684211</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -4219,7 +4222,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="n">
-        <v>20.83333333333333</v>
+        <v>22.23809523809524</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -4231,6 +4234,23 @@
         <v>5</v>
       </c>
       <c r="E193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" t="s">
+        <v>199</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4255,7 +4275,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:1">
